--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/5.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/5.xlsx
@@ -479,13 +479,13 @@
         <v>0.1116348194412399</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626003349670165</v>
+        <v>-1.630157186131277</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00010163837348412</v>
+        <v>0.02435255097536382</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2282790920125179</v>
+        <v>-0.2317828585765332</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1187793767966529</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.650387266887794</v>
+        <v>-1.656595985311765</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.003507587471658357</v>
+        <v>0.02753049558126991</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2066741055535446</v>
+        <v>-0.2070062235881391</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1278202877577077</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.698685256615345</v>
+        <v>-1.707567446516845</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0402263055333608</v>
+        <v>-0.01314058449401857</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2162756221934788</v>
+        <v>-0.2164220059717598</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1324204528971627</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.813743693353744</v>
+        <v>-1.820813400237066</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04429829300016568</v>
+        <v>-0.01677342062598055</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2321228467067342</v>
+        <v>-0.2352504227007586</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1293740497415271</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.768555178400322</v>
+        <v>-1.783736592825267</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02036848029903133</v>
+        <v>0.007405087096319311</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2274511579547137</v>
+        <v>-0.2298310748661204</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.118489145809322</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.595532700510465</v>
+        <v>-1.59978570017622</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04158806035360635</v>
+        <v>0.06885794163014076</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2139350557601047</v>
+        <v>-0.2129481457710492</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1040513225984579</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.337736700785596</v>
+        <v>-1.338892030820631</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08690249683673185</v>
+        <v>0.1090536679307964</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2009572681049805</v>
+        <v>-0.203299408557476</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.09090219125111304</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9398341110355101</v>
+        <v>-0.9328698634333151</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1776541432944443</v>
+        <v>0.202758174260069</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.169645305724946</v>
+        <v>-0.1802778048893321</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.08125044248719562</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4909403848413276</v>
+        <v>-0.4986971510710974</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1905988765480212</v>
+        <v>0.2133245646213605</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1273309496870196</v>
+        <v>-0.1333704610554503</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0761518979654825</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0180231918082933</v>
+        <v>-0.03022026597925233</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1706214258604728</v>
+        <v>0.1893160509641611</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06437490689235595</v>
+        <v>-0.06803922340674395</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07901952293440773</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5317848353002795</v>
+        <v>0.5121158923605061</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1278144018375793</v>
+        <v>0.1488370012216713</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03051326181613471</v>
+        <v>0.02419042700586985</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.09269630678127745</v>
       </c>
       <c r="E13" t="n">
-        <v>1.096538173965602</v>
+        <v>1.07426895143744</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01536804983097949</v>
+        <v>0.03027873296706091</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1354578386906155</v>
+        <v>0.1308317964931127</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1169020177114955</v>
       </c>
       <c r="E14" t="n">
-        <v>1.703478373120026</v>
+        <v>1.669704644834277</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1900068170780916</v>
+        <v>-0.1710178503987202</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2548377449265448</v>
+        <v>0.2500055062241517</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1507768399460221</v>
       </c>
       <c r="E15" t="n">
-        <v>2.338990167364301</v>
+        <v>2.306601575905296</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4611017043588304</v>
+        <v>-0.4449302319065871</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3777261397838534</v>
+        <v>0.3738335904968768</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.193507719530901</v>
       </c>
       <c r="E16" t="n">
-        <v>2.966214750934926</v>
+        <v>2.921688898031572</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6936394192441875</v>
+        <v>-0.6811511515357879</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5190730568766552</v>
+        <v>0.5210201185297041</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2476853781756445</v>
       </c>
       <c r="E17" t="n">
-        <v>3.561519800744696</v>
+        <v>3.516110923114292</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9356354150294405</v>
+        <v>-0.9249808795973561</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6818612624398149</v>
+        <v>0.6833990791213257</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3156681993436218</v>
       </c>
       <c r="E18" t="n">
-        <v>4.121960327017654</v>
+        <v>4.077840571047596</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.157856221584232</v>
+        <v>-1.147849395020563</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8153884525379949</v>
+        <v>0.8161471297544618</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.39577031787777</v>
       </c>
       <c r="E19" t="n">
-        <v>4.593103600500982</v>
+        <v>4.549218373379999</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.375417931539974</v>
+        <v>-1.363830789778519</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9931912264992419</v>
+        <v>0.9916172073779411</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4815602506074039</v>
       </c>
       <c r="E20" t="n">
-        <v>4.955604926193895</v>
+        <v>4.911829880411402</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.559891398537293</v>
+        <v>-1.537564724311204</v>
       </c>
       <c r="G20" t="n">
-        <v>1.127256731136907</v>
+        <v>1.129428877524302</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5648821791128981</v>
       </c>
       <c r="E21" t="n">
-        <v>5.290604989799442</v>
+        <v>5.252329566826773</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.773817911332391</v>
+        <v>-1.749388347560244</v>
       </c>
       <c r="G21" t="n">
-        <v>1.26322050283486</v>
+        <v>1.262224148731077</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.637768897535217</v>
       </c>
       <c r="E22" t="n">
-        <v>5.579075474160219</v>
+        <v>5.544957035686905</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.93532250430213</v>
+        <v>-1.900142389931499</v>
       </c>
       <c r="G22" t="n">
-        <v>1.370522960353049</v>
+        <v>1.369252726922159</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6949469382329362</v>
       </c>
       <c r="E23" t="n">
-        <v>5.74156304207121</v>
+        <v>5.707335996278527</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.069319539108018</v>
+        <v>-2.027479749835164</v>
       </c>
       <c r="G23" t="n">
-        <v>1.476739344677541</v>
+        <v>1.475761878803213</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7346052377993366</v>
       </c>
       <c r="E24" t="n">
-        <v>5.90024935380426</v>
+        <v>5.861718939733941</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.157632242937275</v>
+        <v>-2.117878816009705</v>
       </c>
       <c r="G24" t="n">
-        <v>1.520985022177303</v>
+        <v>1.518968703682917</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7585003535524821</v>
       </c>
       <c r="E25" t="n">
-        <v>5.990898689019089</v>
+        <v>5.95984801381319</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.197558811968189</v>
+        <v>-2.151663562429303</v>
       </c>
       <c r="G25" t="n">
-        <v>1.591978006605328</v>
+        <v>1.592199943301432</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7712118058460554</v>
       </c>
       <c r="E26" t="n">
-        <v>6.046600077683677</v>
+        <v>6.021385865379561</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.21850821946314</v>
+        <v>-2.177904035200507</v>
       </c>
       <c r="G26" t="n">
-        <v>1.649637475056815</v>
+        <v>1.660370711444964</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7786141601031524</v>
       </c>
       <c r="E27" t="n">
-        <v>6.031775965599267</v>
+        <v>6.011749720318958</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.208552548520913</v>
+        <v>-2.180293396226641</v>
       </c>
       <c r="G27" t="n">
-        <v>1.628071839075874</v>
+        <v>1.635452414735653</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7862284253530233</v>
       </c>
       <c r="E28" t="n">
-        <v>5.978065711123124</v>
+        <v>5.952232909304337</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.220375006141003</v>
+        <v>-2.199830908569786</v>
       </c>
       <c r="G28" t="n">
-        <v>1.617280363980237</v>
+        <v>1.632233545632593</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7965584659642858</v>
       </c>
       <c r="E29" t="n">
-        <v>5.878376784094666</v>
+        <v>5.854141611683999</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.164553992023195</v>
+        <v>-2.157445721671401</v>
       </c>
       <c r="G29" t="n">
-        <v>1.587613251581961</v>
+        <v>1.607469502797169</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8103364144950866</v>
       </c>
       <c r="E30" t="n">
-        <v>5.745263561025388</v>
+        <v>5.724728907568899</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.155615137433328</v>
+        <v>-2.160755883883497</v>
       </c>
       <c r="G30" t="n">
-        <v>1.520249955247656</v>
+        <v>1.541870681897842</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8259556576033303</v>
       </c>
       <c r="E31" t="n">
-        <v>5.558229164917712</v>
+        <v>5.528924076917336</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.104173044510979</v>
+        <v>-2.112349286836576</v>
       </c>
       <c r="G31" t="n">
-        <v>1.456993274800824</v>
+        <v>1.480672818461671</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8387858950652402</v>
       </c>
       <c r="E32" t="n">
-        <v>5.3763056088969</v>
+        <v>5.355696976541711</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.022724638069715</v>
+        <v>-2.039471414510794</v>
       </c>
       <c r="G32" t="n">
-        <v>1.41502048091222</v>
+        <v>1.439148620022638</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8445006738481524</v>
       </c>
       <c r="E33" t="n">
-        <v>5.119957706763627</v>
+        <v>5.096433990995789</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.983137270159442</v>
+        <v>-2.004933499941653</v>
       </c>
       <c r="G33" t="n">
-        <v>1.355864120276376</v>
+        <v>1.380129199050347</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8402785703036573</v>
       </c>
       <c r="E34" t="n">
-        <v>4.894351972088478</v>
+        <v>4.880980679653029</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.912040400469411</v>
+        <v>-1.939525135356003</v>
       </c>
       <c r="G34" t="n">
-        <v>1.260607631093501</v>
+        <v>1.284545313890242</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8246279942434593</v>
       </c>
       <c r="E35" t="n">
-        <v>4.604708843482332</v>
+        <v>4.598244346951151</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.87669107904324</v>
+        <v>-1.902268102754816</v>
       </c>
       <c r="G35" t="n">
-        <v>1.17593327246313</v>
+        <v>1.201196279360006</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7976843597470071</v>
       </c>
       <c r="E36" t="n">
-        <v>4.237203711002806</v>
+        <v>4.234502694190653</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.834360982814101</v>
+        <v>-1.866988038169982</v>
       </c>
       <c r="G36" t="n">
-        <v>1.126866374394824</v>
+        <v>1.151644583402339</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7611258909647494</v>
       </c>
       <c r="E37" t="n">
-        <v>3.932265838594981</v>
+        <v>3.926221605169186</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.798749587204233</v>
+        <v>-1.827678484634619</v>
       </c>
       <c r="G37" t="n">
-        <v>1.044446011146156</v>
+        <v>1.068325455235409</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.718354929389974</v>
       </c>
       <c r="E38" t="n">
-        <v>3.649874216080667</v>
+        <v>3.648616574802748</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.7246967096044</v>
+        <v>-1.751532948613016</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9707236775617959</v>
+        <v>0.9944834961978297</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6726088929603032</v>
       </c>
       <c r="E39" t="n">
-        <v>3.310863551754046</v>
+        <v>3.310185149512765</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.688572970770549</v>
+        <v>-1.709005312984153</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8897561339620884</v>
+        <v>0.9098626542175835</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6265261949381027</v>
       </c>
       <c r="E40" t="n">
-        <v>2.984659106998328</v>
+        <v>2.987235776299897</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.650169265239494</v>
+        <v>-1.665483684280189</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8300945131883072</v>
+        <v>0.8503710275089027</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5819360530765227</v>
       </c>
       <c r="E41" t="n">
-        <v>2.669515294607989</v>
+        <v>2.667697302522887</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.625929370771463</v>
+        <v>-1.644006193370041</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7766565640201488</v>
+        <v>0.7941391944004356</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5392995501656608</v>
       </c>
       <c r="E42" t="n">
-        <v>2.338418798423268</v>
+        <v>2.332322622366471</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.575622145635572</v>
+        <v>-1.591545710076211</v>
       </c>
       <c r="G42" t="n">
-        <v>0.716395241961152</v>
+        <v>0.7349749636689853</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4987709251760832</v>
       </c>
       <c r="E43" t="n">
-        <v>2.086065756819857</v>
+        <v>2.078198809251596</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.52352211272052</v>
+        <v>-1.538352520881415</v>
       </c>
       <c r="G43" t="n">
-        <v>0.642192832544795</v>
+        <v>0.6583123623660353</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4613609274898789</v>
       </c>
       <c r="E44" t="n">
-        <v>1.831735747200091</v>
+        <v>1.824197769628183</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.504496943601358</v>
+        <v>-1.515986496177292</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5566039688049488</v>
+        <v>0.5701090528657087</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4263920273957457</v>
       </c>
       <c r="E45" t="n">
-        <v>1.607297934712948</v>
+        <v>1.598198530172709</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.428149933132229</v>
+        <v>-1.431996835864688</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5036004489142695</v>
+        <v>0.5128509592901536</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3928486545248068</v>
       </c>
       <c r="E46" t="n">
-        <v>1.397489055939173</v>
+        <v>1.389626830428276</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.369036858022221</v>
+        <v>-1.372458775591929</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4415227087892916</v>
+        <v>0.4511824641367139</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3593628402233928</v>
       </c>
       <c r="E47" t="n">
-        <v>1.244059968071267</v>
+        <v>1.234360862245812</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.325834755199881</v>
+        <v>-1.323882184479907</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3772806923725253</v>
+        <v>0.3877479195291749</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3266730369271834</v>
       </c>
       <c r="E48" t="n">
-        <v>1.038771672213867</v>
+        <v>1.02496752452006</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.247087365570768</v>
+        <v>-1.243160974872684</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2986458451105856</v>
+        <v>0.3004780033677796</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2962571540848535</v>
       </c>
       <c r="E49" t="n">
-        <v>0.880749596550006</v>
+        <v>0.8685068758245292</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.178120930761418</v>
+        <v>-1.171073260145794</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2560135372101565</v>
+        <v>0.2543765573240037</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2697980870443399</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7780102204644674</v>
+        <v>0.7668598690091734</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.105969468260116</v>
+        <v>-1.099322385510863</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2153707894790514</v>
+        <v>0.2165528778391482</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2472700416354527</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6460649195831947</v>
+        <v>0.6322906782526924</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.068712435658928</v>
+        <v>-1.066005909779852</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1752270058093987</v>
+        <v>0.1755134772894754</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2274069869091196</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4802986698425341</v>
+        <v>0.4573148426333014</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.037599586697738</v>
+        <v>-1.029122706719974</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1343308409997642</v>
+        <v>0.1320217549488161</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.208470566502409</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4134941502962903</v>
+        <v>0.3946924918923536</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.033658242818001</v>
+        <v>-1.022463818827311</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1031857246465875</v>
+        <v>0.104026250857362</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1892648655890848</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2563157488814462</v>
+        <v>0.2389590400308635</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9776963539888375</v>
+        <v>-0.9611274417084658</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05836080811018648</v>
+        <v>0.0565931846369658</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1702339517119596</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1371262989591942</v>
+        <v>0.1202260556537887</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9542324509476081</v>
+        <v>-0.9320088749739637</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02900849953617125</v>
+        <v>0.02930441513097578</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1522655053824442</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04661390340791945</v>
+        <v>0.02993874483685996</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9388212297309531</v>
+        <v>-0.9147765136339637</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.003579992351238189</v>
+        <v>-0.007722810678501599</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1358284877738743</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.06562782611291131</v>
+        <v>-0.08322850792729559</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9424800371784166</v>
+        <v>-0.9156981018294853</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04567083767393988</v>
+        <v>-0.05203459698135856</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1208908737674482</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1214567103263254</v>
+        <v>-0.1349350360620232</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9257985825308718</v>
+        <v>-0.8964958555591775</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0761580140344129</v>
+        <v>-0.08101701106186812</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1074243807796448</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2015506733137109</v>
+        <v>-0.2136139558593594</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9346469310212636</v>
+        <v>-0.90068589446008</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1051435761531651</v>
+        <v>-0.1070623054620306</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.09558039705952202</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2929035950757602</v>
+        <v>-0.3038398799305574</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9319144338266856</v>
+        <v>-0.8962967421403331</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1261504353460441</v>
+        <v>-0.1237925547023356</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.08490990528051008</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3884575738725611</v>
+        <v>-0.3951298409277547</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9124099758850882</v>
+        <v>-0.8782750102110009</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1492208336069482</v>
+        <v>-0.1438675945754046</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.07477215148576141</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4920894187998771</v>
+        <v>-0.5015146452982255</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9036513464846105</v>
+        <v>-0.8685656732612576</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1760625816824889</v>
+        <v>-0.1739376558687329</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.06549737686384643</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5674408621747836</v>
+        <v>-0.567311792606837</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9179804295553713</v>
+        <v>-0.8749365156547221</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1993108441041</v>
+        <v>-0.1928778279553441</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.05657492109409966</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6805231179063889</v>
+        <v>-0.6852073988113797</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9431387641806809</v>
+        <v>-0.8945834223267972</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2332655845887985</v>
+        <v>-0.2297460778335701</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.04742542255517835</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8031234672644995</v>
+        <v>-0.8046156373914926</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9805421805601491</v>
+        <v>-0.9304025884606764</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2777772713200606</v>
+        <v>-0.2751030128329707</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.038685480032898</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8968988044542305</v>
+        <v>-0.9038638390659861</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.009124793783848</v>
+        <v>-0.9611266546989051</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3030355561595727</v>
+        <v>-0.2994184602188237</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.03043532100252085</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9422974509603457</v>
+        <v>-0.9445671865332612</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.047291609437147</v>
+        <v>-1.001410526070354</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3410087674609518</v>
+        <v>-0.3371177921930965</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.02259764894049774</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9849620262527614</v>
+        <v>-0.9922166803828363</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.055692149487529</v>
+        <v>-1.007879744658899</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3633803012319985</v>
+        <v>-0.3593035917078297</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.01498245004332279</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.046914631857596</v>
+        <v>-1.052644848468691</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.101991921940589</v>
+        <v>-1.054465988592036</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3820985366225063</v>
+        <v>-0.378527087236275</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.006060733830769946</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.070724032095951</v>
+        <v>-1.076196896580713</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.143398855955085</v>
+        <v>-1.093650407607256</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3903275085886663</v>
+        <v>-0.3909098956635476</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.005652206749003206</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.081221165615905</v>
+        <v>-1.093136490364151</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.153135738239451</v>
+        <v>-1.103034709608451</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4190848379348299</v>
+        <v>-0.4207706124137429</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.01987076431512253</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.10130328857502</v>
+        <v>-1.110353898522499</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.188782549279548</v>
+        <v>-1.142929798256938</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4035933417429885</v>
+        <v>-0.396450442970526</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.03469859389404563</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.068699843505958</v>
+        <v>-1.081995583023585</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.212995685422517</v>
+        <v>-1.171038631725126</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4112477967298737</v>
+        <v>-0.401638409994333</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.04766436708565466</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.067453220361888</v>
+        <v>-1.082871524664589</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.23120000356992</v>
+        <v>-1.1939516280739</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4110227119955277</v>
+        <v>-0.4076086645214265</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.05810572089242897</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.021037757503413</v>
+        <v>-1.038518026855017</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.251023200383581</v>
+        <v>-1.211528699601464</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4130547706811269</v>
+        <v>-0.4136135474691887</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.06587212881466462</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9349365505395829</v>
+        <v>-0.9493089191361795</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.265738705148621</v>
+        <v>-1.221408817625869</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3867371709729794</v>
+        <v>-0.3867230048008877</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.07034508927251294</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.871853012196094</v>
+        <v>-0.8856437807273699</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.278909310146104</v>
+        <v>-1.233409926416226</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3683164251963975</v>
+        <v>-0.3691915798278406</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.07126697060410379</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7252110947792367</v>
+        <v>-0.7396117957200167</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.267079769439969</v>
+        <v>-1.22034478069987</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3244060137694722</v>
+        <v>-0.3239432521478098</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.06813864325219497</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6118927361794363</v>
+        <v>-0.6264083405160712</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.288522631929448</v>
+        <v>-1.241811253476168</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3081951908391964</v>
+        <v>-0.3112236036285789</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.06068449382844707</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4574153515767442</v>
+        <v>-0.4731114702543547</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.285070807996436</v>
+        <v>-1.240739346454563</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2858110649151793</v>
+        <v>-0.2872103679140156</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.05014838932966646</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3119177460610725</v>
+        <v>-0.3284811492745197</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.300008249457579</v>
+        <v>-1.262420672840919</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2616246870972729</v>
+        <v>-0.2639794197027387</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.036989545502243</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1503021847432818</v>
+        <v>-0.1695288283099697</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.309332738732164</v>
+        <v>-1.275500771738928</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2345421140961733</v>
+        <v>-0.2386959505572858</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.02192426723084325</v>
       </c>
       <c r="E83" t="n">
-        <v>0.04292282856846933</v>
+        <v>0.02493021599288117</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.289607918113585</v>
+        <v>-1.260308339180133</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1746695747601378</v>
+        <v>-0.1771093043981538</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.005359099368042539</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2062556447475991</v>
+        <v>0.1895348396220219</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.281925130782516</v>
+        <v>-1.261141782304862</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1514858471224999</v>
+        <v>-0.1527733947637239</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.01229772853844312</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3753871473696006</v>
+        <v>0.3573504622586161</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.199957298031222</v>
+        <v>-1.187636663359241</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1070922118253353</v>
+        <v>-0.1088519652029495</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.03040183872956544</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5762744857638434</v>
+        <v>0.5545766321767135</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.127350944003864</v>
+        <v>-1.119812179422395</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05423822375117952</v>
+        <v>-0.05900907570784191</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.04801969099308512</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7648498465912724</v>
+        <v>0.7424468324377997</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.04406329621936</v>
+        <v>-1.042794636807591</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01037031084052936</v>
+        <v>-0.0150530177263989</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06424303249978021</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9199898932440321</v>
+        <v>0.8934456347824172</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9174153566908243</v>
+        <v>-0.9205004341685737</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01417966539439747</v>
+        <v>0.009698432956054413</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07726352009979436</v>
       </c>
       <c r="E89" t="n">
-        <v>1.056927982778071</v>
+        <v>1.031222676508109</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8117931645846237</v>
+        <v>-0.8198238101414997</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04292282856846933</v>
+        <v>0.04611651336558843</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08529321609798536</v>
       </c>
       <c r="E90" t="n">
-        <v>1.157148928269528</v>
+        <v>1.126113993254842</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.670180238260322</v>
+        <v>-0.6765077951279508</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06310647576090805</v>
+        <v>0.06250520045657119</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08672524699142121</v>
       </c>
       <c r="E91" t="n">
-        <v>1.251805716167187</v>
+        <v>1.223563091073689</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4962652915286878</v>
+        <v>-0.5042864929708361</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03610575175411605</v>
+        <v>0.03622065514997101</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0814677212750345</v>
       </c>
       <c r="E92" t="n">
-        <v>1.286157109470454</v>
+        <v>1.25722978605919</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3476464060954768</v>
+        <v>-0.359980419929989</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06257445729790842</v>
+        <v>0.06289870523689636</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06969144030278858</v>
       </c>
       <c r="E93" t="n">
-        <v>1.314673613891058</v>
+        <v>1.284660217286097</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2383118898916885</v>
+        <v>-0.2515305024723716</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0474371154083597</v>
+        <v>0.04617317805395525</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.05112910964593041</v>
       </c>
       <c r="E94" t="n">
-        <v>1.268002372925372</v>
+        <v>1.234016152058247</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1071756348387643</v>
+        <v>-0.1263991303672096</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06317101054488138</v>
+        <v>0.06590822979682327</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.02662185472146564</v>
       </c>
       <c r="E95" t="n">
-        <v>1.233117387139984</v>
+        <v>1.203744616317392</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01867640974363309</v>
+        <v>-0.03371616244766116</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01966354801300907</v>
+        <v>0.02288084309694767</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.001316174913800783</v>
       </c>
       <c r="E96" t="n">
-        <v>1.145272953999314</v>
+        <v>1.115245391222261</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0577312004616662</v>
+        <v>0.0446699897931131</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01954684231771237</v>
+        <v>-0.01856465438602074</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.03101343360842474</v>
       </c>
       <c r="E97" t="n">
-        <v>1.082916612489866</v>
+        <v>1.05796840941725</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1036358941152795</v>
+        <v>0.09245406227755937</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0143604493130266</v>
+        <v>-0.005004479656015312</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05901396362540567</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9839218278939021</v>
+        <v>0.9545459090330674</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1026867605851352</v>
+        <v>0.09191574773807454</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0587666767631616</v>
+        <v>-0.05883908164274144</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08202833580752551</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9175108131279835</v>
+        <v>0.8987012846284402</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1181514984519144</v>
+        <v>0.1070798479526854</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05379749839721533</v>
+        <v>-0.04978060159965598</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09701738431276286</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8611546325089336</v>
+        <v>0.8469916084554701</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1088364532920569</v>
+        <v>0.1010576507945889</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06095613736089086</v>
+        <v>-0.05872890030425039</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1047195248282084</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7778842989347634</v>
+        <v>0.7670597694375786</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1023499204931768</v>
+        <v>0.09696205304096454</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06213822572098768</v>
+        <v>-0.05810244069397271</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1061302634975985</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7486862442346356</v>
+        <v>0.7438052109394822</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1056506385905443</v>
+        <v>0.09873597259067042</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06250339815712944</v>
+        <v>-0.05877612087788941</v>
       </c>
     </row>
   </sheetData>
